--- a/미룬 일.xlsx
+++ b/미룬 일.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\js\chewzoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6AA461-BBCF-4EED-A69D-41CA18A57D37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1E64F0-E555-44A7-B29D-E4C53AC4BC89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>sequelize 를 통해 mySQL의 column 값 중 조건에 맞는 값을 count 하여 front 로 전달해야합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,13 +146,193 @@
   <si>
     <t>7) 코멘트에서 아바타의 vertical align이 정리되지 않구 middle에 있어서 어떤 영문인지 모르겠다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 게시글. 가지치기 작성 시 입력창 크기 지맘대로 변하는거 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7) 글 작성 직후 바로 업데이트 안되는 것 같은데 수정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글이 많을 때 그 글을 요 약해서 볼 수 있는 리스트? 같은 것이 있으면 좋겠다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가령 통계 같은거 ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임은 30일 이내 변경을 제한하고자 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글(모바일) 입력할 때 크기 맘대로드라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 주주 버튼 제작!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타 변경하면 기존에 작성한 글에 있던 아바타가 바로 적용되도록 어떻게 하죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 주기 시작하면, 관김 주주 숫자가 바로 올라가지 않습니다. 취소해도 바로 내려가지 않아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐶', '🐱', '🐭', '🐹', '🐰', '🐻', '🧸', '🐼', '🐨', '🐯', '🦁', '🐮', '🐷', '🐽', '🐸', '🐵', '🙈', '🙉', '🙊', '🐒', '🦍', '🦧', '🐔', '🐧', '🐦', '🐤', '🐣', '🐥', '🐺', '🦊', '🦝', '🐗', '🐴', '🦓', '🦒', '🦌', '🦘', '🦥', '🦦', '🦄', '🐝', '🐛', '🦋', '🐌', '🐞', '🐜', '🦗', '🕷', '🕸', '🦂', '🦟', '🦠', '🐢', '🐍', '🦎', '🐙', '🦑', '🦞', '🦀', '🦐', '🦪', '🐠', '🐟', '🐡', '🐬', '🦈', '🐳', '🐋', '🐊', '🐆', '🐅', '🐃', '🐂', '🐄', '🐪', '🐫', '🦙', '🐘', '🦏', '🦛', '🐐', '🐏', '🐑', '🐎', '🐖', '🦇', '🐓', '🦃', '🕊', '🦅', '🦆', '🦢', '🦉', '🦩', '🦚', '🦜', '🐕', '🦮', '🐕‍🦺', '🐩', '🐈', '🐇', '🐀', '🐁', '🐿', '🦨', '🦡', '🦔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기 제작!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 주는 관심 / 받는 관심 리스트 보기 !!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 주주의 글 모아 보기!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 사이즈 편집기 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 크거나 작거나 비율이 이상한 사진에 대한 대응 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ant.design/components/auto-complete/</t>
+  </si>
+  <si>
+    <t>새글 작성 시에 해당 페이지가 어디냐에 따라서 페이지 이동 분기 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 메인 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목별 #한 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 말씀 모아본 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 개 포스트만 있는 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기에서 자동완성 기능(유저 검색 기능 ?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 숫자 id가 아니라 hash 로 검색하도록 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; 로그인 여부 확인 =&gt; 글쓰기 창 노출 =&gt; #해시태그 자동 추가한 글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 신고하기와 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;LinkOutlined /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL 복사하기 버튼 추가 // 로그인 시 만 뵈게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fold 사이즈로 할때 좌우 액션 버튼의 정렬이 맞지 않는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; 글 작성과 동시에 메인으로 넘어가기 / ? 작성 버튼 지우기 or 메인가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(서버 사이드 렌더링 이슈로 생각함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글과 닉네임 신고하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시글 수정하기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">연속 신고 시간 제한 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 수정 시간 제한, 수정 게시물은 (수정됨) 표시, 게시글 날짜를 CREATE가 아니라 UPDATE 로 수정, 오래된 작성 글 수정 제한, 암툰 제한 여러모로 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single post 페이지에서 바로 하위 branch가 모여서 보이도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 계정의 게시글과 댓글 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 id도 hash id로 전환 못하나 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404 페이지 만들기, 다시 시도 후 문제가 반복되면 오픈 카톡으로 문의해주세요. 페이지 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nextjs.org/docs/advanced-features/custom-error-page#404-page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +364,72 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,16 +458,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,158 +768,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U30"/>
+  <dimension ref="B2:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S8" t="s">
+      <c r="R8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="O10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="P12" t="s">
+      <c r="O12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S12" t="s">
+      <c r="R12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U12" t="s">
+      <c r="T12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="S13" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="O13" s="2"/>
+      <c r="R13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="S14" t="s">
+      <c r="O14" s="2"/>
+      <c r="R14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="P19" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S19" t="s">
+      <c r="R19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="S20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="S21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O27" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="O30" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O31" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O34" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O36" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O40" s="9"/>
+      <c r="P40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S40" s="15"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="18"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="18"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="17"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="T43" s="18"/>
+      <c r="U43" s="17"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="N44" s="17"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" s="18"/>
+      <c r="U44" s="17"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" s="12"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P49" s="12">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P50" s="12">
+        <f>P49*1.3</f>
+        <v>153400</v>
+      </c>
+      <c r="R50">
+        <v>127600</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="13">
+        <f>P50-R50</f>
+        <v>25800</v>
+      </c>
+      <c r="S51">
+        <f>R50*1.2</f>
+        <v>153120</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q52" s="14">
+        <f>Q51/R50</f>
+        <v>0.20219435736677116</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -645,4 +1228,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB1E86F-5BF4-4812-A71E-B1126BFCBE71}">
+  <dimension ref="F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="11" spans="6:6" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/미룬 일.xlsx
+++ b/미룬 일.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\js\chewzoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1E64F0-E555-44A7-B29D-E4C53AC4BC89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CC531-1951-4D1E-8D61-BFC791903D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>sequelize 를 통해 mySQL의 column 값 중 조건에 맞는 값을 count 하여 front 로 전달해야합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +322,10 @@
   </si>
   <si>
     <t>https://nextjs.org/docs/advanced-features/custom-error-page#404-page</t>
+  </si>
+  <si>
+    <t>title.meta 를 입력해 카카오톡 등에서 미리 보이는 이미지와 글을 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -768,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U74"/>
+  <dimension ref="B2:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1221,6 +1225,11 @@
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
